--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2149289.348450948</v>
+        <v>2151049.878753733</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="D2" t="n">
-        <v>263.5639921989975</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="E2" t="n">
-        <v>263.5639921989975</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83561175645087</v>
+        <v>12.83561175645086</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3620237587339</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.8004413602295</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>207.8370339107487</v>
+        <v>212.435506830715</v>
       </c>
     </row>
     <row r="3">
@@ -740,13 +740,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.0234885084581</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48674643928075</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94827785225827</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.20026557072416</v>
+        <v>18.20026557072401</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>147.191497924499</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>166.0459279758007</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404795</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5335881704494</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2171002436558</v>
       </c>
       <c r="U4" t="n">
-        <v>263.5639921989975</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>124.1239362188782</v>
+        <v>99.03096944645927</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>66.67731766039418</v>
+        <v>219.4450108596164</v>
       </c>
       <c r="E5" t="n">
         <v>263.7138800015061</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -980,13 +980,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>39.92287474145482</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565635</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>260.5167087883574</v>
+        <v>235.8715405415671</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>25.76218525460166</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>46.00704632459887</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>90.69811547110028</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>94.91529601901398</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>176.181132337578</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365925</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206833</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444131</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>130.5513683573768</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>131.7584887394948</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>40.1538165833283</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>111.3213230702137</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>138.1441996497202</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>31.24750433886444</v>
       </c>
     </row>
     <row r="26">
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>161.0175085755505</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>214.85520491952</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560528</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.19779014108431</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3432,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>73.44478684180565</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>207.096750443965</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>689.9756907444968</v>
+        <v>839.6746487649665</v>
       </c>
       <c r="C2" t="n">
-        <v>689.9756907444968</v>
+        <v>573.4483940185039</v>
       </c>
       <c r="D2" t="n">
-        <v>423.7494359980346</v>
+        <v>307.2221392720413</v>
       </c>
       <c r="E2" t="n">
-        <v>157.5231812515725</v>
+        <v>40.99588452557873</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5776805023691</v>
+        <v>34.05038377637526</v>
       </c>
       <c r="G2" t="n">
-        <v>137.6124161019137</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="H2" t="n">
-        <v>137.6124161019137</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0851193759198</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="J2" t="n">
-        <v>50.19026732552095</v>
+        <v>49.14994660701132</v>
       </c>
       <c r="K2" t="n">
-        <v>142.9906865349512</v>
+        <v>141.9503658164421</v>
       </c>
       <c r="L2" t="n">
-        <v>295.0195743965825</v>
+        <v>295.0195743965808</v>
       </c>
       <c r="M2" t="n">
-        <v>495.850442417391</v>
+        <v>495.8504424173901</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5447722238174</v>
+        <v>704.5447722238173</v>
       </c>
       <c r="O2" t="n">
-        <v>888.2736487381122</v>
+        <v>888.2736487381129</v>
       </c>
       <c r="P2" t="n">
-        <v>1010.580993266319</v>
+        <v>1010.580993266321</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="S2" t="n">
-        <v>899.9120886341419</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="T2" t="n">
-        <v>899.9120886341419</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="U2" t="n">
-        <v>899.9120886341419</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="V2" t="n">
-        <v>899.9120886341419</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="W2" t="n">
-        <v>899.9120886341419</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="X2" t="n">
-        <v>899.9120886341419</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="Y2" t="n">
-        <v>689.9756907444968</v>
+        <v>839.6746487649665</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>303.3664454365229</v>
+        <v>492.173066802359</v>
       </c>
       <c r="C3" t="n">
-        <v>303.3664454365229</v>
+        <v>317.720037521232</v>
       </c>
       <c r="D3" t="n">
-        <v>303.3664454365229</v>
+        <v>317.720037521232</v>
       </c>
       <c r="E3" t="n">
-        <v>303.3664454365229</v>
+        <v>158.4825825157765</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3664454365229</v>
+        <v>158.4825825157765</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9689822966663</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="H3" t="n">
-        <v>65.47731922668574</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0851193759198</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0851193759198</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="K3" t="n">
-        <v>192.5098291378357</v>
+        <v>95.64621773957445</v>
       </c>
       <c r="L3" t="n">
-        <v>339.0889684539673</v>
+        <v>242.2253570557066</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4967785168093</v>
+        <v>432.6331671185492</v>
       </c>
       <c r="N3" t="n">
-        <v>739.3527616516404</v>
+        <v>642.489150253381</v>
       </c>
       <c r="O3" t="n">
-        <v>909.1101923271648</v>
+        <v>812.2465809289059</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.02243028045</v>
+        <v>929.1588188821916</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.871862158895</v>
+        <v>1035.871862158897</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.871862158895</v>
+        <v>1035.871862158897</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.871862158895</v>
+        <v>1035.871862158897</v>
       </c>
       <c r="U3" t="n">
-        <v>1035.871862158895</v>
+        <v>1035.871862158897</v>
       </c>
       <c r="V3" t="n">
-        <v>1035.871862158895</v>
+        <v>1035.871862158897</v>
       </c>
       <c r="W3" t="n">
-        <v>887.1935814270777</v>
+        <v>1035.871862158897</v>
       </c>
       <c r="X3" t="n">
-        <v>679.3420812215448</v>
+        <v>868.148702587381</v>
       </c>
       <c r="Y3" t="n">
-        <v>471.5817824565909</v>
+        <v>660.3884038224271</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352.1817296341087</v>
+        <v>319.1148523706487</v>
       </c>
       <c r="C4" t="n">
-        <v>183.2455467062018</v>
+        <v>319.1148523706487</v>
       </c>
       <c r="D4" t="n">
-        <v>183.2455467062018</v>
+        <v>168.998212958313</v>
       </c>
       <c r="E4" t="n">
-        <v>183.2455467062018</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="F4" t="n">
-        <v>36.35559920829147</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="G4" t="n">
-        <v>36.35559920829147</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="H4" t="n">
-        <v>36.35559920829147</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="I4" t="n">
-        <v>36.35559920829147</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0851193759198</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="K4" t="n">
-        <v>126.327239195361</v>
+        <v>126.3272391953612</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5273535735297</v>
+        <v>316.5273535735303</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559541</v>
+        <v>527.455829255955</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8035136568277</v>
+        <v>738.803513656829</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0010123005229</v>
+        <v>918.0010123005243</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.814747485825</v>
+        <v>1047.814747485827</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="R4" t="n">
-        <v>925.4341625632128</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="S4" t="n">
-        <v>925.4341625632128</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="T4" t="n">
-        <v>925.4341625632128</v>
+        <v>828.7841503680565</v>
       </c>
       <c r="U4" t="n">
-        <v>659.2079078167507</v>
+        <v>828.7841503680565</v>
       </c>
       <c r="V4" t="n">
-        <v>659.2079078167507</v>
+        <v>828.7841503680565</v>
       </c>
       <c r="W4" t="n">
-        <v>659.2079078167507</v>
+        <v>828.7841503680565</v>
       </c>
       <c r="X4" t="n">
-        <v>659.2079078167507</v>
+        <v>600.7945994700392</v>
       </c>
       <c r="Y4" t="n">
-        <v>533.8301944643484</v>
+        <v>500.7633172008884</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>634.167062227511</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C5" t="n">
-        <v>634.167062227511</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="D5" t="n">
         <v>566.8162363079209</v>
@@ -4570,19 +4570,19 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>634.167062227511</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>634.167062227511</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>634.167062227511</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>634.167062227511</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>235.8762757837271</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>61.42324650260011</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4649,49 +4649,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>611.8519115687491</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>404.0916128037952</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>355.3743762745875</v>
+        <v>634.9529738206666</v>
       </c>
       <c r="C7" t="n">
-        <v>186.4381933466806</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434483</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4761,16 +4761,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001377</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>537.0228411048272</v>
+        <v>816.6014386509063</v>
       </c>
       <c r="X7" t="n">
-        <v>537.0228411048272</v>
+        <v>816.6014386509063</v>
       </c>
       <c r="Y7" t="n">
-        <v>537.0228411048272</v>
+        <v>816.6014386509063</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>859.685290191162</v>
+        <v>474.7217947496369</v>
       </c>
       <c r="C8" t="n">
-        <v>859.685290191162</v>
+        <v>474.7217947496369</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>474.7217947496369</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>88.93354215139266</v>
       </c>
       <c r="F8" t="n">
         <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2515.867564435914</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2307.121923041738</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2307.121923041738</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>1976.059035698168</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>1623.290380428054</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X8" t="n">
-        <v>1249.824622166974</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y8" t="n">
-        <v>859.685290191162</v>
+        <v>861.3216348137587</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>168.0008189145204</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1676.586023648284</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598622</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319553</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>142.8610446196195</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>864.354910933632</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901019</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5035,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.533952578166</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1804.131916132773</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2356.04164637206</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2351.089047197418</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2131.487582220359</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2131.487582220359</v>
+        <v>2049.400878868274</v>
       </c>
       <c r="V13" t="n">
-        <v>1876.803094014472</v>
+        <v>1794.716390662387</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,16 +5281,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5311,7 +5311,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5369,10 +5369,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>835.5837926935558</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>666.6476097656489</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>516.5309703533131</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>368.61787677092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>368.61787677092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X19" t="n">
-        <v>1238.024836667326</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y19" t="n">
-        <v>1017.232257523796</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="20">
@@ -5749,31 +5749,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6918836311989</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7557007032921</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>482.6390612909563</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>482.6390612909563</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>482.6390612909563</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>315.4429620058363</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6192,7 +6192,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614387</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>403.3505586019938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>256.4606111040835</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,16 +6460,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6481,10 +6481,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6545,25 +6545,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>352.5519571452614</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6645,22 +6645,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
         <v>1110.113570442288</v>
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,16 +6706,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.9487421954783</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,31 +6925,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7025,7 +7025,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
         <v>2001.151557821488</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1970.320130882545</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,16 +7162,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,13 +7426,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.050829008596025</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.050829008592615</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.60994937518677</v>
+        <v>60.60994937518649</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.123866789362637</v>
+        <v>2.12386678936241</v>
       </c>
       <c r="K3" t="n">
-        <v>97.8420317154158</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.84203171541405</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>54.95314511566572</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9556134883066534</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>86.11098998263061</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>110.0033420516661</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>34.97276993489206</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>33.76564955277408</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>211.9838267404997</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>35.11263957635548</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>2.150513196503709</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>187.3371490132303</v>
       </c>
     </row>
     <row r="26">
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>4.506629716718379</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>10.85445046951719</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>212.7396875474385</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>45.04089287986301</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>852339.0024515541</v>
+        <v>852339.0024515539</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>856017.4546923235</v>
+        <v>856017.4546923236</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624044</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624044</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624044</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752542</v>
       </c>
-      <c r="F2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="I2" t="n">
         <v>585181.2847752545</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752547</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="K2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="L2" t="n">
-        <v>585181.2847752545</v>
-      </c>
       <c r="M2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="O2" t="n">
-        <v>585181.2847752548</v>
-      </c>
       <c r="P2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752541</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.2761163114</v>
+        <v>679693.2761163127</v>
       </c>
       <c r="C3" t="n">
-        <v>373.9475389969619</v>
+        <v>373.9475389957798</v>
       </c>
       <c r="D3" t="n">
         <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.93717491449</v>
+        <v>68959.93717491462</v>
       </c>
       <c r="K3" t="n">
-        <v>38.57632395603374</v>
+        <v>38.57632395593133</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756971</v>
+        <v>95382.64613756977</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246846.0156077615</v>
+        <v>246846.0156077613</v>
       </c>
       <c r="C4" t="n">
-        <v>246753.8673982314</v>
+        <v>246753.8673982313</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731954</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731957</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
@@ -26447,7 +26447,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732007</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
@@ -26459,7 +26459,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732056</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.8969336037</v>
+        <v>63030.89693360375</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-394314.9055060713</v>
+        <v>-394314.9055060726</v>
       </c>
       <c r="C6" t="n">
-        <v>285079.6650101108</v>
+        <v>285079.6650101119</v>
       </c>
       <c r="D6" t="n">
-        <v>-23128.85335604692</v>
+        <v>-23128.85335604669</v>
       </c>
       <c r="E6" t="n">
-        <v>-31891.37835428778</v>
+        <v>-31578.73702536627</v>
       </c>
       <c r="F6" t="n">
-        <v>475594.0632702582</v>
+        <v>475906.7045991796</v>
       </c>
       <c r="G6" t="n">
-        <v>475594.0632702585</v>
+        <v>475906.7045991794</v>
       </c>
       <c r="H6" t="n">
-        <v>475594.0632702585</v>
+        <v>475906.7045991794</v>
       </c>
       <c r="I6" t="n">
-        <v>475594.0632702587</v>
+        <v>475906.7045991799</v>
       </c>
       <c r="J6" t="n">
-        <v>406634.126095344</v>
+        <v>406946.7674242651</v>
       </c>
       <c r="K6" t="n">
-        <v>475555.4869463024</v>
+        <v>475868.1282752239</v>
       </c>
       <c r="L6" t="n">
-        <v>380211.4171326888</v>
+        <v>380524.0584616098</v>
       </c>
       <c r="M6" t="n">
-        <v>342986.7695413316</v>
+        <v>343299.4108702531</v>
       </c>
       <c r="N6" t="n">
-        <v>475594.0632702584</v>
+        <v>475906.7045991799</v>
       </c>
       <c r="O6" t="n">
-        <v>475594.0632702588</v>
+        <v>475906.7045991797</v>
       </c>
       <c r="P6" t="n">
-        <v>475594.0632702585</v>
+        <v>475906.7045991793</v>
       </c>
     </row>
   </sheetData>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726906</v>
+        <v>613.6975324726917</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989975</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-1.3076049615184e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26937,10 +26937,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726906</v>
+        <v>613.6975324726917</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3574812967876824</v>
+        <v>0.3574812967865455</v>
       </c>
       <c r="D3" t="n">
         <v>320.0098783480609</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989975</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1498878025086583</v>
+        <v>0.1498878025082035</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989975</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025086015</v>
+        <v>0.1498878025082035</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989975</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025086583</v>
+        <v>0.1498878025082035</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.7088995720096</v>
       </c>
       <c r="D2" t="n">
-        <v>91.11904942168547</v>
+        <v>91.11904942168502</v>
       </c>
       <c r="E2" t="n">
-        <v>118.3663778732643</v>
+        <v>118.3663778732638</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>314.2083504396427</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3620237587337</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.8004413602294</v>
       </c>
       <c r="T2" t="n">
         <v>212.2960065554913</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>178.4009047453049</v>
+        <v>173.8024318253386</v>
       </c>
     </row>
     <row r="3">
@@ -27460,13 +27460,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.48674643928074</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.94827785225819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.164217801745</v>
+        <v>147.1642178017449</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8440868802707</v>
+        <v>194.8440868802706</v>
       </c>
       <c r="U3" t="n">
         <v>225.8545380905306</v>
@@ -27520,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>104.5034852364206</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>39.72705722767674</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8843116769506</v>
@@ -27557,10 +27557,10 @@
         <v>152.3878907573036</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1699595597229</v>
+        <v>122.1699595597228</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.11777503404781</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5335881704493</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7303985328715</v>
+        <v>204.7303985328714</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2171002436558</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.69467346577477</v>
+        <v>286.2586656647723</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>94.46071713321659</v>
+        <v>119.5536839056355</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>288.0057239602888</v>
+        <v>135.2380307610665</v>
       </c>
       <c r="E5" t="n">
         <v>118.2164900707556</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27675,7 +27675,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27700,13 +27700,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>107.5221908231839</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778211</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>26.00628954823361</v>
+        <v>50.65145779502393</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>381.1138604871098</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>77.4451690741955</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>55.73584717546889</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28310,7 +28310,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.527282595053492e-12</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-3.658665540570077e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -29817,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>7.394985773160066e-13</v>
       </c>
     </row>
     <row r="33">
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684181</v>
+        <v>2.467125758684186</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26645167612438</v>
+        <v>25.26645167612443</v>
       </c>
       <c r="I2" t="n">
-        <v>95.113865811672</v>
+        <v>95.11386581167217</v>
       </c>
       <c r="J2" t="n">
-        <v>209.3942148611217</v>
+        <v>209.3942148611221</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262232</v>
+        <v>313.8276482262237</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3309481635543</v>
+        <v>389.330948163555</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745541</v>
+        <v>433.2056958745549</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2154169364155</v>
+        <v>440.2154169364164</v>
       </c>
       <c r="O2" t="n">
-        <v>415.6829351734997</v>
+        <v>415.6829351735004</v>
       </c>
       <c r="P2" t="n">
-        <v>354.7757680059839</v>
+        <v>354.7757680059846</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4218267731065</v>
+        <v>266.4218267731071</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9755884389454</v>
+        <v>154.9755884389456</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601584</v>
+        <v>56.21962822601594</v>
       </c>
       <c r="T2" t="n">
-        <v>10.79984300864001</v>
+        <v>10.79984300864003</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973700606947345</v>
+        <v>0.1973700606947348</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32002865475258</v>
+        <v>1.320028654752582</v>
       </c>
       <c r="H3" t="n">
-        <v>12.74869779721571</v>
+        <v>12.74869779721573</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915681</v>
+        <v>45.44835499915689</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7137598773041</v>
+        <v>124.7137598773043</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1556797457269</v>
+        <v>213.1556797457273</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628354</v>
+        <v>286.6141164628359</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976163</v>
+        <v>334.4651551976169</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3174526235668</v>
+        <v>343.3174526235674</v>
       </c>
       <c r="O3" t="n">
-        <v>314.0683966419438</v>
+        <v>314.0683966419444</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0675770641133</v>
+        <v>252.0675770641137</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5004998592942</v>
+        <v>168.5004998592945</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191898</v>
+        <v>81.95756858191912</v>
       </c>
       <c r="S3" t="n">
-        <v>24.51895330209286</v>
+        <v>24.5189533020929</v>
       </c>
       <c r="T3" t="n">
-        <v>5.320641814550966</v>
+        <v>5.320641814550976</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868439904442487</v>
+        <v>0.08684399044424887</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.10666768150813</v>
+        <v>1.106667681508132</v>
       </c>
       <c r="H4" t="n">
-        <v>9.83928175013593</v>
+        <v>9.839281750135948</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753542</v>
+        <v>33.28051536753549</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262482</v>
+        <v>78.24140508262496</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5746633606718</v>
+        <v>128.5746633606721</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023943997</v>
+        <v>164.5313023944</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4751893840426</v>
+        <v>173.4751893840429</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3503371166034</v>
+        <v>169.3503371166037</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4224464735311</v>
+        <v>156.4224464735314</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8464257707651</v>
+        <v>133.8464257707653</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337627</v>
+        <v>92.66832740337644</v>
       </c>
       <c r="R4" t="n">
-        <v>49.75980320672011</v>
+        <v>49.7598032067202</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28619950410078</v>
+        <v>19.28619950410081</v>
       </c>
       <c r="T4" t="n">
-        <v>4.728489184625647</v>
+        <v>4.728489184625656</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06036369171862536</v>
+        <v>0.06036369171862548</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31837,19 +31837,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31858,10 +31858,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>332.9841464938405</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>246.2467565146294</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33274,7 +33274,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33283,10 +33283,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33745,10 +33745,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.39913934303146</v>
+        <v>28.34831033443584</v>
       </c>
       <c r="K2" t="n">
-        <v>93.73779718124263</v>
+        <v>93.7377971812432</v>
       </c>
       <c r="L2" t="n">
-        <v>153.5645331935671</v>
+        <v>154.6153622021604</v>
       </c>
       <c r="M2" t="n">
-        <v>202.8594626472813</v>
+        <v>202.8594626472821</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8023533398246</v>
+        <v>210.8023533398255</v>
       </c>
       <c r="O2" t="n">
-        <v>185.584723751813</v>
+        <v>185.5847237518137</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5427722507143</v>
+        <v>123.542772250715</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.11613689865706</v>
+        <v>44.11613689865757</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>173.1562724867837</v>
+        <v>75.3142407713683</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0597366829612</v>
+        <v>148.0597366829617</v>
       </c>
       <c r="M3" t="n">
-        <v>192.331121275598</v>
+        <v>192.3311212755986</v>
       </c>
       <c r="N3" t="n">
-        <v>211.9757405402335</v>
+        <v>211.9757405402341</v>
       </c>
       <c r="O3" t="n">
-        <v>171.4721521974994</v>
+        <v>171.4721521975</v>
       </c>
       <c r="P3" t="n">
-        <v>118.093169649783</v>
+        <v>118.0931696497835</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.51872577327271</v>
+        <v>126.3607574886871</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.305171534789</v>
+        <v>106.3051715347892</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1213276547159</v>
+        <v>192.1213276547161</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0590663458832</v>
+        <v>213.0590663458835</v>
       </c>
       <c r="N4" t="n">
-        <v>213.482509495832</v>
+        <v>213.4825094958323</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0075743875707</v>
+        <v>181.007574387571</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1249850356586</v>
+        <v>131.1249850356588</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151681882</v>
+        <v>6.506284151682053</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>117.9333660065831</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35266,10 +35266,10 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>336.3802954844296</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667036</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35506,10 +35506,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0097390795103</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>108.4053175402704</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36931,10 +36931,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37393,10 +37393,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37539,10 +37539,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
